--- a/data/hotels_by_city/Houston/Houston_shard_504.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_504.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d1524037-Reviews-Motel_6_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Pasadena-TX.h2815553.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,229 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r385983590-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>1524037</t>
+  </si>
+  <si>
+    <t>385983590</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>Horrible. Smell like cigarette smoke from the time you walk into the lobby, the female attendant was "angry at life, I guess" no help at all.    May sound like a good deal for the traveler but trust me, " it is not worth your money"</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r358325071-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>358325071</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Appropriate for a job requiring travel</t>
+  </si>
+  <si>
+    <t>Honestly, the hotel seems to have made the updates where it matters most.  Evaluating a King size room for an extended stay.  
+PROS: 
+awesomely friendly and HELPFUL staff - very personable!;
+great rates (better weekly rate on phone than internet);
+clean and no sign of bedbugs or other critters inside;
+$1.00 laundry facility IN BUILDING;
+security cameras present at all entrances;
+soft bedsheets (felt like 400 TC);
+hard floors (no nasty hotel carpeting! smart!);
+plenty of electrical outlets;
+free wifi (I can't evaluate signal as I use an unlimited Jetpack);
+HDMI TV with appropriate hookups for laptop/xbox;
+spacious mini fridge, microwave;
+marble bathroom counters, tub surround, and floor;
+curved shower curtain rod (makes tub seem larger);
+large laminate dresser/desk countertop;
+table and 3 chairs in room;
+pool LOOKS clean with a variety of patio furniture;
+staff accommodated any concerns I had (noise, unfamiliar area, housekeeping);
+Housekeepers were GREAT (respected privacy, polite and friendly, offered laundry service if needed);
+Close to freeway, grocery stores, restaurants, gas stations;
+Seems to have mostly working-class guests
+Generally quiet top floor (yes, there's noises but it's no Spring Break crowd)
+CONS: ((NONE are deal breakers))
+nonfunctional external door "card access only" security;
+mattress is extra firm;
+bathroom fan not working;
+bathroom heat light not working;
+no tub stopper or sink plug;
+fire sprinkler head hanging out of ceiling;
+small hole in top part of bathroom door where door stop hits;
+occasional funky odor from A/C...Honestly, the hotel seems to have made the updates where it matters most.  Evaluating a King size room for an extended stay.  PROS: awesomely friendly and HELPFUL staff - very personable!;great rates (better weekly rate on phone than internet);clean and no sign of bedbugs or other critters inside;$1.00 laundry facility IN BUILDING;security cameras present at all entrances;soft bedsheets (felt like 400 TC);hard floors (no nasty hotel carpeting! smart!);plenty of electrical outlets;free wifi (I can't evaluate signal as I use an unlimited Jetpack);HDMI TV with appropriate hookups for laptop/xbox;spacious mini fridge, microwave;marble bathroom counters, tub surround, and floor;curved shower curtain rod (makes tub seem larger);large laminate dresser/desk countertop;table and 3 chairs in room;pool LOOKS clean with a variety of patio furniture;staff accommodated any concerns I had (noise, unfamiliar area, housekeeping);Housekeepers were GREAT (respected privacy, polite and friendly, offered laundry service if needed);Close to freeway, grocery stores, restaurants, gas stations;Seems to have mostly working-class guestsGenerally quiet top floor (yes, there's noises but it's no Spring Break crowd)CONS: ((NONE are deal breakers))nonfunctional external door "card access only" security;mattress is extra firm;bathroom fan not working;bathroom heat light not working;no tub stopper or sink plug;fire sprinkler head hanging out of ceiling;small hole in top part of bathroom door where door stop hits;occasional funky odor from A/C (no mold inside - I checked);general disrepair of public areas [many lights out in pool area, carpet on middle stairway severely worn, pool patio needs to be power washed, parking lot asphalt needs repair, wood fence has been kissed by several car bumpers and trailer hitches; exterior paint is terribly worn];CFL bulbs (let's face it - they suck!);no hairdryer, coffeemaker, iron;window is heavy, no screen, and won't stay up (soup can worked well as a window prop to air out room).Overall, the hotel has been convenient and met my needs for an extended low budget stay.  It may look run down in public areas but the rooms have been cost effectively modernized.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Honestly, the hotel seems to have made the updates where it matters most.  Evaluating a King size room for an extended stay.  
+PROS: 
+awesomely friendly and HELPFUL staff - very personable!;
+great rates (better weekly rate on phone than internet);
+clean and no sign of bedbugs or other critters inside;
+$1.00 laundry facility IN BUILDING;
+security cameras present at all entrances;
+soft bedsheets (felt like 400 TC);
+hard floors (no nasty hotel carpeting! smart!);
+plenty of electrical outlets;
+free wifi (I can't evaluate signal as I use an unlimited Jetpack);
+HDMI TV with appropriate hookups for laptop/xbox;
+spacious mini fridge, microwave;
+marble bathroom counters, tub surround, and floor;
+curved shower curtain rod (makes tub seem larger);
+large laminate dresser/desk countertop;
+table and 3 chairs in room;
+pool LOOKS clean with a variety of patio furniture;
+staff accommodated any concerns I had (noise, unfamiliar area, housekeeping);
+Housekeepers were GREAT (respected privacy, polite and friendly, offered laundry service if needed);
+Close to freeway, grocery stores, restaurants, gas stations;
+Seems to have mostly working-class guests
+Generally quiet top floor (yes, there's noises but it's no Spring Break crowd)
+CONS: ((NONE are deal breakers))
+nonfunctional external door "card access only" security;
+mattress is extra firm;
+bathroom fan not working;
+bathroom heat light not working;
+no tub stopper or sink plug;
+fire sprinkler head hanging out of ceiling;
+small hole in top part of bathroom door where door stop hits;
+occasional funky odor from A/C...Honestly, the hotel seems to have made the updates where it matters most.  Evaluating a King size room for an extended stay.  PROS: awesomely friendly and HELPFUL staff - very personable!;great rates (better weekly rate on phone than internet);clean and no sign of bedbugs or other critters inside;$1.00 laundry facility IN BUILDING;security cameras present at all entrances;soft bedsheets (felt like 400 TC);hard floors (no nasty hotel carpeting! smart!);plenty of electrical outlets;free wifi (I can't evaluate signal as I use an unlimited Jetpack);HDMI TV with appropriate hookups for laptop/xbox;spacious mini fridge, microwave;marble bathroom counters, tub surround, and floor;curved shower curtain rod (makes tub seem larger);large laminate dresser/desk countertop;table and 3 chairs in room;pool LOOKS clean with a variety of patio furniture;staff accommodated any concerns I had (noise, unfamiliar area, housekeeping);Housekeepers were GREAT (respected privacy, polite and friendly, offered laundry service if needed);Close to freeway, grocery stores, restaurants, gas stations;Seems to have mostly working-class guestsGenerally quiet top floor (yes, there's noises but it's no Spring Break crowd)CONS: ((NONE are deal breakers))nonfunctional external door "card access only" security;mattress is extra firm;bathroom fan not working;bathroom heat light not working;no tub stopper or sink plug;fire sprinkler head hanging out of ceiling;small hole in top part of bathroom door where door stop hits;occasional funky odor from A/C (no mold inside - I checked);general disrepair of public areas [many lights out in pool area, carpet on middle stairway severely worn, pool patio needs to be power washed, parking lot asphalt needs repair, wood fence has been kissed by several car bumpers and trailer hitches; exterior paint is terribly worn];CFL bulbs (let's face it - they suck!);no hairdryer, coffeemaker, iron;window is heavy, no screen, and won't stay up (soup can worked well as a window prop to air out room).Overall, the hotel has been convenient and met my needs for an extended low budget stay.  It may look run down in public areas but the rooms have been cost effectively modernized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r282913222-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>282913222</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>OK only for a QUICK stay...</t>
+  </si>
+  <si>
+    <t>Myself, husband &amp; 2 small children (ages5&amp;7) stayed 5 nights here due to my husbands work. I chose this motel due to it being 2 miles from the office where my husband was working. He was to be in Pasadena, TX only a week. 
+I called &amp; made a res. for 1 week at a weekly rate, stating who would be in the room. 
+When arrived at the hotel, the lady at the front desk (Bobbi) immediately ask what rate I was quoted when I made my res., then told me that rate was wrong. She began to complain about her staff, that they are giving out the wrong rates, the rates had went up &amp;  so on...she did give us the rate I was quoted. She then stated that my kids were not staying free for that rate. 
+I then ask about the room, after being told no on anything I ask, she then found a room &amp; let me go look at it, before I booked it. I have found if you can look at a room before booking it, look...
+POS:The room was spacious, clean bathroom but have to put your things on the back of the tolit, a table to sit &amp; eat at, AC worked good, more comfortable than expected beds, good shower with plenty of hot water, ice machine that worked, maid did come by daily &amp; was very nice to change things-older lady....Myself, husband &amp; 2 small children (ages5&amp;7) stayed 5 nights here due to my husbands work. I chose this motel due to it being 2 miles from the office where my husband was working. He was to be in Pasadena, TX only a week. I called &amp; made a res. for 1 week at a weekly rate, stating who would be in the room. When arrived at the hotel, the lady at the front desk (Bobbi) immediately ask what rate I was quoted when I made my res., then told me that rate was wrong. She began to complain about her staff, that they are giving out the wrong rates, the rates had went up &amp;  so on...she did give us the rate I was quoted. She then stated that my kids were not staying free for that rate. I then ask about the room, after being told no on anything I ask, she then found a room &amp; let me go look at it, before I booked it. I have found if you can look at a room before booking it, look...POS:The room was spacious, clean bathroom but have to put your things on the back of the tolit, a table to sit &amp; eat at, AC worked good, more comfortable than expected beds, good shower with plenty of hot water, ice machine that worked, maid did come by daily &amp; was very nice to change things-older lady. Wi Fi was free but very limited.NEG: The counter &amp; table had to be wiped off again before using, fridge had to be wiped out before using, the microwave had to be replaced due to food left inside W/a foul oder, floors have no carpet &amp; needed to be swept-hair &amp; dirt, TV viewing very limited-about 10 channels. We parked at the back of the hotel due to being closest to the door entering-exiting near our room. When enter-exiting that door going down that hall was a very strong foul oder?? That door as well as the other enter-exit doors were never locked, just push-pull open??I guess that prostitution is legal in this area, a lady did her business in the vehicles in the parking area that we parked in, day &amp; night, very plain sight??As I said, stay here for a quick stay ONLY...I do not want my children seeing what I seen, but it happens, &amp; they did not. My husband &amp; I left there feeling a slight discomfort...I will avoid this hotel unless I cannot find another one in this area.I did read the reviews on this hotel, only to find one bad, so I took a chance...Rate I was quoted &amp; got $368 for 7 nights, stayed 5. I did however sign a hand written statement on the back of my reservation stating that we would not get a refund on any days staying past Thursday 6-18-2015 11 am.Stayed Monday 6-15-2015 to Saturday 10:30 am 6-20-2015.Sorry I did not take any pictures of the room etc., did not think of it, but will try to remember in the future as most website pictures are not accurate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Myself, husband &amp; 2 small children (ages5&amp;7) stayed 5 nights here due to my husbands work. I chose this motel due to it being 2 miles from the office where my husband was working. He was to be in Pasadena, TX only a week. 
+I called &amp; made a res. for 1 week at a weekly rate, stating who would be in the room. 
+When arrived at the hotel, the lady at the front desk (Bobbi) immediately ask what rate I was quoted when I made my res., then told me that rate was wrong. She began to complain about her staff, that they are giving out the wrong rates, the rates had went up &amp;  so on...she did give us the rate I was quoted. She then stated that my kids were not staying free for that rate. 
+I then ask about the room, after being told no on anything I ask, she then found a room &amp; let me go look at it, before I booked it. I have found if you can look at a room before booking it, look...
+POS:The room was spacious, clean bathroom but have to put your things on the back of the tolit, a table to sit &amp; eat at, AC worked good, more comfortable than expected beds, good shower with plenty of hot water, ice machine that worked, maid did come by daily &amp; was very nice to change things-older lady....Myself, husband &amp; 2 small children (ages5&amp;7) stayed 5 nights here due to my husbands work. I chose this motel due to it being 2 miles from the office where my husband was working. He was to be in Pasadena, TX only a week. I called &amp; made a res. for 1 week at a weekly rate, stating who would be in the room. When arrived at the hotel, the lady at the front desk (Bobbi) immediately ask what rate I was quoted when I made my res., then told me that rate was wrong. She began to complain about her staff, that they are giving out the wrong rates, the rates had went up &amp;  so on...she did give us the rate I was quoted. She then stated that my kids were not staying free for that rate. I then ask about the room, after being told no on anything I ask, she then found a room &amp; let me go look at it, before I booked it. I have found if you can look at a room before booking it, look...POS:The room was spacious, clean bathroom but have to put your things on the back of the tolit, a table to sit &amp; eat at, AC worked good, more comfortable than expected beds, good shower with plenty of hot water, ice machine that worked, maid did come by daily &amp; was very nice to change things-older lady. Wi Fi was free but very limited.NEG: The counter &amp; table had to be wiped off again before using, fridge had to be wiped out before using, the microwave had to be replaced due to food left inside W/a foul oder, floors have no carpet &amp; needed to be swept-hair &amp; dirt, TV viewing very limited-about 10 channels. We parked at the back of the hotel due to being closest to the door entering-exiting near our room. When enter-exiting that door going down that hall was a very strong foul oder?? That door as well as the other enter-exit doors were never locked, just push-pull open??I guess that prostitution is legal in this area, a lady did her business in the vehicles in the parking area that we parked in, day &amp; night, very plain sight??As I said, stay here for a quick stay ONLY...I do not want my children seeing what I seen, but it happens, &amp; they did not. My husband &amp; I left there feeling a slight discomfort...I will avoid this hotel unless I cannot find another one in this area.I did read the reviews on this hotel, only to find one bad, so I took a chance...Rate I was quoted &amp; got $368 for 7 nights, stayed 5. I did however sign a hand written statement on the back of my reservation stating that we would not get a refund on any days staying past Thursday 6-18-2015 11 am.Stayed Monday 6-15-2015 to Saturday 10:30 am 6-20-2015.Sorry I did not take any pictures of the room etc., did not think of it, but will try to remember in the future as most website pictures are not accurate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r246451281-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>246451281</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Clean and affordable </t>
+  </si>
+  <si>
+    <t>Stayed here as everything else was completely way off budget for a night clearly not my first choice as its a motel but i must saw I'm impressed. It's simplistic, CLEAN  and the people were very friendly. Sure aesthetically the room isn't a 5* but it's something I can deal with. 2 beds fridge microwave tv no coffee make tho:( the room was very spacious like I was surprised I've stayed in many hotels and I was surprised that it was this big. The only thing I find odd is that normally motel  6 you access your room for the outdoors here you don't is all through the inside.. Odd but still alright. Anyways if ur on a budget this place ain't so bad comply beds and pillows but you free highway noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed here as everything else was completely way off budget for a night clearly not my first choice as its a motel but i must saw I'm impressed. It's simplistic, CLEAN  and the people were very friendly. Sure aesthetically the room isn't a 5* but it's something I can deal with. 2 beds fridge microwave tv no coffee make tho:( the room was very spacious like I was surprised I've stayed in many hotels and I was surprised that it was this big. The only thing I find odd is that normally motel  6 you access your room for the outdoors here you don't is all through the inside.. Odd but still alright. Anyways if ur on a budget this place ain't so bad comply beds and pillows but you free highway noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r244956823-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>244956823</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>The hotel was clean but the wi-fi connection was not good.  Slow and hard to keep signal.  Soft drink machines on bottom floor not working,  had to go to the top floor.  No coffee available went back 30 min later and still no coffee. For that price there should be snacks available for breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r199094031-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>199094031</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Pretty nice place</t>
+  </si>
+  <si>
+    <t>This motel had excellent maid service and nice staff. We had a kitchenette witch was handy. Nobody bothered us they're. It was family's and oil field workers. No complaints and no problems either. Over all Happy !!!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r128370307-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>128370307</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Overall good!</t>
+  </si>
+  <si>
+    <t>NIce Rooms. The only issue I ran into was in my room the Windows would not lock so I had to move to another room. Not that big of a deal but my room needs to be locked up while I am sleeping. Rooms were really nice and the rooms had HDTVS. So bring your HDMI equipment and hook them up. Rooms were big. Also rooms had a fridge and microwave.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
 </sst>
 </file>
@@ -532,11 +761,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +793,514 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_504.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_504.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r431138989-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>1524037</t>
+  </si>
+  <si>
+    <t>431138989</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>I wouldn't stay again</t>
+  </si>
+  <si>
+    <t>The lobby looks okay, but first thing when I opened the door to the room, a little roach was staring me in the face. The room we were given smelled horrible, not like smoke, but like something had soured in the fridge and was left for a long time. It was the only place with vacancy we could find that took dogs, or we would have stayed anywhere else. Maybe you could get lucky and get a better room here that doesn't smell, but I'm guessing if there is one roach, there are probably many more lurking about this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Pasadena, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>The lobby looks okay, but first thing when I opened the door to the room, a little roach was staring me in the face. The room we were given smelled horrible, not like smoke, but like something had soured in the fridge and was left for a long time. It was the only place with vacancy we could find that took dogs, or we would have stayed anywhere else. Maybe you could get lucky and get a better room here that doesn't smell, but I'm guessing if there is one roach, there are probably many more lurking about this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r407844424-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>407844424</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>It was ok...</t>
+  </si>
+  <si>
+    <t>I would have preferred carpet, but I like that there wasn't carpet here (because most of these hotels never wash them anyway). We loved the pool, housekeeping was very thorough, although the halls smell like cigarette smoke. It has a modern feel like they are trying to make it more attractive. The beds are super firm, the blankets are VERY thin. There are two pillows per bed and those are thin also. If I needed to stay here again, I would...but since visiting this hotel I've found a hotel nearby that I absolutely love, for the same price. So I'll be staying there from now on.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r385983590-Motel_6_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>1524037</t>
-  </si>
-  <si>
     <t>385983590</t>
   </si>
   <si>
@@ -172,9 +223,6 @@
   </si>
   <si>
     <t>June 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r358325071-Motel_6_Pasadena-Pasadena_Texas.html</t>
@@ -226,9 +274,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Honestly, the hotel seems to have made the updates where it matters most.  Evaluating a King size room for an extended stay.  
 PROS: 
 awesomely friendly and HELPFUL staff - very personable!;
@@ -292,6 +337,54 @@
 POS:The room was spacious, clean bathroom but have to put your things on the back of the tolit, a table to sit &amp; eat at, AC worked good, more comfortable than expected beds, good shower with plenty of hot water, ice machine that worked, maid did come by daily &amp; was very nice to change things-older lady....Myself, husband &amp; 2 small children (ages5&amp;7) stayed 5 nights here due to my husbands work. I chose this motel due to it being 2 miles from the office where my husband was working. He was to be in Pasadena, TX only a week. I called &amp; made a res. for 1 week at a weekly rate, stating who would be in the room. When arrived at the hotel, the lady at the front desk (Bobbi) immediately ask what rate I was quoted when I made my res., then told me that rate was wrong. She began to complain about her staff, that they are giving out the wrong rates, the rates had went up &amp;  so on...she did give us the rate I was quoted. She then stated that my kids were not staying free for that rate. I then ask about the room, after being told no on anything I ask, she then found a room &amp; let me go look at it, before I booked it. I have found if you can look at a room before booking it, look...POS:The room was spacious, clean bathroom but have to put your things on the back of the tolit, a table to sit &amp; eat at, AC worked good, more comfortable than expected beds, good shower with plenty of hot water, ice machine that worked, maid did come by daily &amp; was very nice to change things-older lady. Wi Fi was free but very limited.NEG: The counter &amp; table had to be wiped off again before using, fridge had to be wiped out before using, the microwave had to be replaced due to food left inside W/a foul oder, floors have no carpet &amp; needed to be swept-hair &amp; dirt, TV viewing very limited-about 10 channels. We parked at the back of the hotel due to being closest to the door entering-exiting near our room. When enter-exiting that door going down that hall was a very strong foul oder?? That door as well as the other enter-exit doors were never locked, just push-pull open??I guess that prostitution is legal in this area, a lady did her business in the vehicles in the parking area that we parked in, day &amp; night, very plain sight??As I said, stay here for a quick stay ONLY...I do not want my children seeing what I seen, but it happens, &amp; they did not. My husband &amp; I left there feeling a slight discomfort...I will avoid this hotel unless I cannot find another one in this area.I did read the reviews on this hotel, only to find one bad, so I took a chance...Rate I was quoted &amp; got $368 for 7 nights, stayed 5. I did however sign a hand written statement on the back of my reservation stating that we would not get a refund on any days staying past Thursday 6-18-2015 11 am.Stayed Monday 6-15-2015 to Saturday 10:30 am 6-20-2015.Sorry I did not take any pictures of the room etc., did not think of it, but will try to remember in the future as most website pictures are not accurate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r250796742-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>250796742</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>A good place to stay before a cruise</t>
+  </si>
+  <si>
+    <t>We drove to the Houston area in order to take a cruise and needed a place to stay on the night before. We were pleased with this Motel 6, which was clean, comfortable and allowed for an easy drive to the Houston cruise port. There is long-term parking available at the cruise port at a reasonable rate and it is adjacent to the passenger terminal. The motel was hard to find at night in the rain, because their large lighted sign isn't obvious from the freeway (Pasadena Freeway, route 225) - the motel is on the southside frontage road at Preston Road, well below the level of the freeway  Oddly enough, the usual large lighted Motel 6 sign is easily visible from the motel itself!  There is a small unlighted sign just before the freeway exit, which is easy to see in the daytime. We would definitely stay here again if in the Houston area in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We drove to the Houston area in order to take a cruise and needed a place to stay on the night before. We were pleased with this Motel 6, which was clean, comfortable and allowed for an easy drive to the Houston cruise port. There is long-term parking available at the cruise port at a reasonable rate and it is adjacent to the passenger terminal. The motel was hard to find at night in the rain, because their large lighted sign isn't obvious from the freeway (Pasadena Freeway, route 225) - the motel is on the southside frontage road at Preston Road, well below the level of the freeway  Oddly enough, the usual large lighted Motel 6 sign is easily visible from the motel itself!  There is a small unlighted sign just before the freeway exit, which is easy to see in the daytime. We would definitely stay here again if in the Houston area in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r247377017-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>247377017</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Roaches and Loud Dogs</t>
+  </si>
+  <si>
+    <t>Don't stay here no matter how good of a deal it may seem. Both mornings we were there we were awakened early by barking and fighting dogs who are apparently owned by workers staying there, who refused to keep them quiet. Cigarette burns on sheets and light . (No comforter) no hair dryer. No iron. Roach crawling on nightstand table. When I checked out I returned my card so when she asked how my stay was I would let her know.  However she just took my card and walked off.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Pasadena, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Don't stay here no matter how good of a deal it may seem. Both mornings we were there we were awakened early by barking and fighting dogs who are apparently owned by workers staying there, who refused to keep them quiet. Cigarette burns on sheets and light . (No comforter) no hair dryer. No iron. Roach crawling on nightstand table. When I checked out I returned my card so when she asked how my stay was I would let her know.  However she just took my card and walked off.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r246451281-Motel_6_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -310,9 +403,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Stayed here as everything else was completely way off budget for a night clearly not my first choice as its a motel but i must saw I'm impressed. It's simplistic, CLEAN  and the people were very friendly. Sure aesthetically the room isn't a 5* but it's something I can deal with. 2 beds fridge microwave tv no coffee make tho:( the room was very spacious like I was surprised I've stayed in many hotels and I was surprised that it was this big. The only thing I find odd is that normally motel  6 you access your room for the outdoors here you don't is all through the inside.. Odd but still alright. Anyways if ur on a budget this place ain't so bad comply beds and pillows but you free highway noise. More</t>
   </si>
   <si>
@@ -347,6 +437,42 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r176122094-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>176122094</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>restfull night</t>
+  </si>
+  <si>
+    <t>the people in the front office were vary nice an helpful,  the room was awesome second floor tv, frige, micro, an a  vary soft bed just to my likeing, sleept good. good truck parking for semis an price was right, la quinta wanted to charge me 178 dollars just for one night by my self 1 bed no thank you. thank you so much motel 6 when I come back I will be at your front door.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r174219777-Motel_6_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>174219777</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Great for a Motel 6, close to downtown Houston</t>
+  </si>
+  <si>
+    <t>I was on a tight budget for this trip, so I was pleased to find that this location was pretty nice. My only complaint was the wireless Internet--free, but was broken down so much that it was worthless. I was hoping to get some laundry done while here, but was never able to because they were always in use. One washer and dryer for a motel this big is not enough. Pros include big rooms that open into an inside corridor. They have been partially converted to the "studio" look that the newer Motel 6 locations sport, including flat-screen TVs. Room, bathroom and linens were clean. Bed was comfy and the maid service was great. Maria at the desk called 30 minutes after I checked in to make sure the room was perfect and to ask if I needed anything. THAT was a nice, welcome touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was on a tight budget for this trip, so I was pleased to find that this location was pretty nice. My only complaint was the wireless Internet--free, but was broken down so much that it was worthless. I was hoping to get some laundry done while here, but was never able to because they were always in use. One washer and dryer for a motel this big is not enough. Pros include big rooms that open into an inside corridor. They have been partially converted to the "studio" look that the newer Motel 6 locations sport, including flat-screen TVs. Room, bathroom and linens were clean. Bed was comfy and the maid service was great. Maria at the desk called 30 minutes after I checked in to make sure the room was perfect and to ask if I needed anything. THAT was a nice, welcome touch.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d1524037-r128370307-Motel_6_Pasadena-Pasadena_Texas.html</t>
@@ -902,7 +1028,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -919,10 +1045,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -938,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -947,36 +1077,32 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -999,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1008,38 +1134,32 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1062,7 +1182,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1071,32 +1191,36 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1140,21 +1264,21 @@
         <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1166,7 +1290,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1182,7 +1306,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1191,41 +1315,35 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1233,7 +1351,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1258,49 +1376,437 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57810</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
